--- a/biology/Médecine/Girolamo_Rossi_(1539-1607)/Girolamo_Rossi_(1539-1607).xlsx
+++ b/biology/Médecine/Girolamo_Rossi_(1539-1607)/Girolamo_Rossi_(1539-1607).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Girolamo Rossi, en latin Rubeus ou de Rubeis, né à Ravenne en 1539 et mort dans la même ville en 1607, est un médecin et un historien italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il montre des talents tellement précoces, qu'il est choisi, n'ayant encore que quinze ans, pour prononcer des harangues publiques au nom du sénat.
 Il est appelé ensuite à Rome par son oncle, devenu supérieur général des carmes, il y termine son éducation, puis se fait recevoir docteur en médecine et en philosophie à Padoue.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comme écrivain, il compose :
 Historiarum Ravennatum lib. X [« Histoire de Ravenne »], Venise, 1572, in-fol.Ouvrage fort estimé, plein de recherches et d'un bon style.
